--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/23_Çankırı_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/23_Çankırı_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04EEE950-EE15-4540-8A0D-E151005D2FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83D8F200-20B5-45EB-8730-F1542D669BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{D3908BBF-3DA5-4979-B550-DFE001C7208A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{687A7716-842D-4468-A4CB-8E20852E61D3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -951,13 +951,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{740C7BA7-C0AE-409D-A1DB-A1C28E0C6888}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D21051BE-F4FD-4243-927B-D8CA43E66374}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D8FAE661-3F23-4672-85CA-75ED9D734C46}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E86766C3-A94E-48FA-BC5A-2520C28BA0E6}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{329889D6-2EDB-4B33-98A1-07B8B9D11AD1}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{5EB80B93-374E-4B5D-A673-3F9613F192E0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{AD41F438-302D-43FC-BA84-B4105ADACFC4}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{C3054FE9-8294-44B8-B8E1-0F7587968929}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DA875745-BF97-4E9F-BFC8-DA28F22C4EE2}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D779B9DB-7499-4BC6-BB7F-BA3C9A03E5F4}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8A415E9D-0710-4E5A-9F8D-FAA3F104E74E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A918AC26-D586-4F9E-A8AD-4FC2829B1DA9}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{1DEB3A9B-EB83-45E1-93D0-70B0DAF38272}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{50CC916C-EB02-4936-8075-4CEAABEF7673}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842EB4D1-EA61-44DB-B462-8640DB94B32E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577C80A4-4377-4ADB-9A32-EA57C30F7325}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2582,18 +2582,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6403D52F-495C-4460-9A61-E8ACE1804170}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50BDF4E1-069F-4254-A829-67EC96CB288C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EE756AF7-353C-4BD3-A108-E8439595F7A2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5EBB347F-5836-4ED5-B297-14A8DA6690B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C7C3940-8980-4FC0-A448-F1AC49DF0A68}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EA3F6102-D7D0-44C4-ADA8-038DC61653C4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06CDD248-C6A4-4959-BEB5-02078D49BD89}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{347D6E60-FF40-4E2C-8979-D5248D7E0389}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7F3B9DF-1789-43A5-9ABF-03349A22BCE3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A6171A55-87D7-4F28-806A-96B73AB19504}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9940337-1212-43DA-8548-529433D8CA19}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4A3F2545-F570-4897-A45E-CF5152FF3DEE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A0151F8D-6701-4D38-8FD8-461E3A38F81B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7BD002EB-BAD4-46DD-9AB9-1999CD97D286}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6E86CB55-3501-4B0A-8CEF-FCC169EC52E1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{57995720-CB52-41DD-A681-532C8F587848}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22D90DDD-C40C-4C1E-983F-8C5A2C110468}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2575F6B3-C48B-439E-AB19-62B24628DE11}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48739FFA-38F5-46EF-AD34-BC9F1A7812B8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{888DE8DC-01E5-4FB5-A138-E107782B63D2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4A3AEE7-133E-4619-BC54-DACBCADE335C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{77D9D567-7AF8-4DB3-87E9-EE1D147AF671}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1DA177E6-6501-45E8-8032-61AF2D3F8881}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F730B6DD-DADD-4E92-84B0-AD83ABC9ACC4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2606,7 +2606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAEDA14-6737-4617-84F1-1F041F4211D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB9C037-6E38-47C8-96E4-C66F120F5C85}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3830,18 +3830,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60CD2F5C-3B0B-43D9-970D-96DA36ED9C3F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F7ACD88-B387-4315-B80E-D36924111FDB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{42EDB44C-ECCB-46F3-A86E-24B60E2DE6FE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52257804-2FF4-4D95-BE52-25E30F991C49}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A9913928-E422-479C-B1B8-37C2BF06E235}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DFB4C942-8248-462C-91BD-9403CD5310D6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BAA09EA-E747-4C25-B19B-177904740405}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6EAC3A39-CEBD-4A7B-AD3E-9B98D6D7B2E8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6AE2CD4-2B16-4BD2-8614-847F033ED8E2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8ACE079C-EA49-4541-ADB0-859041B83400}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB49E63E-2EBB-410A-BD5A-8F5047270946}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1EEACD0E-9C24-4D1F-ACA0-22C03F6FEB0B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7BF33A4-C850-4B7B-BDEF-6D492D3BE0C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{150A631A-0808-4848-AB61-FF3BC340E161}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B7705103-7DF7-46E3-B498-706E81ECCC1C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63CDD24B-C974-4758-9037-A99A3F7FE14D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F30227B-83D2-4C2D-8ED7-C00FD01E26C2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{869FA92E-DE71-4B8C-A6FC-4B8A0295F968}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D9B334E5-56EB-4F09-AC46-9A7EAC34C393}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A99A1E6B-82B9-4515-A65A-261A04252FB2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{999EEB59-F2C5-4B57-9C75-74F6C93F26B4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{727EE4A9-B165-4DF3-84C6-43998E17231A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CBD334BF-321B-48C1-95A9-CBE55A7490A8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A777F72-9966-4F7F-8FBB-E695465F358B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3854,7 +3854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00653FF2-1CF5-4181-9E32-9B4B2ACB43A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F520F9B-767E-401B-B6E4-04E861A7DE7A}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5068,18 +5068,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0501BE0C-B9A6-46C4-9316-E1421E1B34E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{123953B1-900E-47DF-99B0-9EE44946604A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E42508A0-4562-48E1-895A-3AFE3590AB16}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{41D9BC58-10F4-455A-909C-2D6DC6AF7F6F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D91EE187-E9BA-4A8F-8852-DE47E1A8CCC6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D697BC7D-97F4-4B45-AA00-744114DBB3BC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B52C6E88-FD64-4FF6-9C5A-5B29EC723F44}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A3DBCEB-30D1-43D4-ADD5-8772007A77F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D2A6631-7D6A-412A-93D2-1C088BFCD082}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{15EA8226-90F9-4C65-B9CB-EC3F61D31002}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB6BA110-3126-4DEC-8E3C-A523687AE705}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{904E70D7-155C-4062-8516-13F69CCC5155}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6742E63B-7CED-45DA-B62A-72EB6CFD719E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5BC7276D-C01F-4E6C-8033-859BF59EEC48}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{459D7153-9958-4785-B7CD-6B18C956E48E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DBD6C6D7-DA57-43F4-9D4D-3969902A066A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{95BB796A-FEAF-408F-9ED0-20C0FBFBE38A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C79A12E2-6044-4D9C-BA2E-072D9F5292D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54A91E79-14B7-43AB-A2AA-964629D8523A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46A86813-0752-4D4E-929C-A9F2163DA4C1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80DF4D71-F95E-44AF-BB55-AB68143C74EC}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7840C2C8-3FE2-4DED-87D5-E92D95358A93}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE776F8F-7DEA-4BA1-AD41-1F131925BAF3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2AC6C13B-DC88-4EE3-8B54-0425D712FF20}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5092,7 +5092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC522594-702B-4780-B259-A2ECD51FA53F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B38ADC7-1824-4F13-ABDA-75776465F56F}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6300,18 +6300,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD194BE1-5E65-44AF-95A6-9F3C485AF6A7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6CD919F-9090-490C-9005-2AF29B800E90}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{13F27B48-CE2F-4C6A-AFF1-9389DC496C30}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C70072EE-08E0-4D1D-A376-9F0A03B571E0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1E43BD0-C539-4480-B1B1-4CE3D779BD7D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{420683BD-24A2-4CAD-BE81-94416F4B0563}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C63220C-364A-4F97-8B64-9509CD7CE958}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB5DA802-E43C-4343-8F32-FB805DE9A668}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F635374A-F7DC-4FE3-8E61-66672CC2D733}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FF786D70-C89A-47E0-82DF-0662725D94A7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF27E020-1EB5-4103-9E4B-608734E2A4D6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CF82D6F6-4835-4A7D-8CA2-3742784BE4E1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05AD8BA9-6302-4C79-8E43-54569AC569F0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF46E6C2-81A5-4194-A832-DCC06E35384E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5FAF9D0F-80BF-4123-8221-025D1D1142E0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F5F08BFE-2C85-47C5-833F-7984C62918A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{95C9C030-E068-4B23-AD40-578D5907B753}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{560C1478-5BAB-4D98-B448-2B8E650ACF3B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3C154FB9-D2F2-44A5-87E1-C0C0ECEBD9AF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{954CF7A4-1BA7-4F99-9208-4F8CC7A23F41}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A37CA23D-4773-4D8E-ACE5-BD748E18C309}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{81FE70B3-D700-4560-83F6-16925C7D6EC0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D43CA56-FA2E-454B-B94C-F8C7AA47DFBF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4CDECC95-63DD-4104-9CE6-20481D494EE4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6324,7 +6324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09ECDF4-E907-462D-BA91-5A3861911AAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0737EA91-A031-4255-9CE4-E9F10E376E96}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7579,18 +7579,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18916168-E8A0-4F2F-A67D-47E25CADCF2A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BDDA391C-A81C-44B1-95F2-F8AC47CF1780}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1BE8DCB3-A26B-4004-A62F-2801670E3857}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{37FF3684-C8F4-4917-A553-DD35DACC05B4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0A515D1F-73A1-4656-AD71-7C7D010C6FC3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{50247503-BB67-4CB4-A094-9DE45C3C06D1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D60C0850-21EB-43D6-83F0-9C3CDEEE37F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2879251F-4148-4DAC-98D9-E7D524E63D0A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4689C7B8-096E-4888-8754-8992F76A905B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{94A4DFF8-EA22-4C5B-8307-9DDB523EEB42}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7097E23-C683-4F38-AD20-922C6C18C2BA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{19629121-7B1E-47EE-AFF5-6209AE3474B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55511880-D079-42D8-B92A-54EAFCF5EFF0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04598F6C-AA8B-4F73-A9CF-16427E28F21F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{99B7FCDA-F08C-4B16-A4D2-CFB8F0AF828E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CFDA9E4B-5D1E-491E-B675-1DAA7D56CBCE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{939DE12B-AF9F-4B4D-8E7A-31447EAC4B4F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2A926615-0DCA-4CFE-9EE3-124AAFD5CD28}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35BE422A-94CB-48CD-A574-CDE3BFAE5886}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF47ECED-44EE-4609-81C4-8C43E82BC0D0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{96FF4BC6-8D95-464C-AFDD-0C53CACE37E9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{81F322BB-50A7-4176-B29F-420A00923655}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72911770-EB20-4D48-B31C-2FED60595317}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{139F2DF9-1461-412C-A5E5-FBE1E7AF81FE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7603,7 +7603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3929BCE-3413-44D6-807F-1D9E88D0682F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAF49FB-8FEF-49C1-85A9-1B9ED9E0E1B7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8856,18 +8856,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A18DDCD7-949F-490C-BB86-D4D3C0421C4C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{516504A3-26CA-406B-BF3E-42440632FCCC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{75E8065B-3768-40B8-8F94-775E04144489}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{47C12A13-0E56-4A30-B2F1-7127B53FBACD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D254278-DE70-423D-8F33-3D95B2DB6CC5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{67B0FE90-8658-4519-97B6-03232772B2AA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FBE0732B-58A7-4E82-9043-A2376802978D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62761189-A89B-4374-B0B1-04A8E4DC770F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3FAB8FD0-A130-4288-8645-01E4942D3C37}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5301895F-926E-4C00-9302-B13BF047BF9A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB645A7B-AE6B-4998-8437-FC255356DD85}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{77DDBB07-DE2B-4DBA-9082-C7B9F811FB08}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{840DE96A-40BD-4D08-B0BD-66409E468C2E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35BEE11D-EC10-4AE6-8893-FD2E1F255D20}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{59D1223E-92A6-40A5-8338-69C2C07C8146}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C0CBECE6-CB36-43C2-9DA3-59263069B4E7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8965ACBF-7318-44A1-A99E-31BB7AE0EB39}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FDC2C99C-D3D1-4521-9D03-BB02F65AB3A9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A616456-E10B-4CFB-9868-14EA25AAFF9F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{093B9FC3-B068-420F-909B-CBAD4B5FDD3A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{944F8550-A9B5-4FA3-BAAB-13D6B8F817AB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0D91A5D6-36E9-4501-8A68-302B86AF7049}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F8777AD-3678-4178-8820-991DEEB098AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{711F6D14-FB4C-4676-8065-E4B5D1366C13}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8880,7 +8880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E906C5-B2A7-48A6-A073-5BE0A72EA333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83465FC-1B62-47D5-B6A8-B313B0C0F8BC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10135,18 +10135,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3934981-0639-40F0-9445-3C2EB0A970B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{179C9EB9-B616-401D-9FF5-C6125824C6C0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{749C35AB-05B7-4509-A418-CA01B080241D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DCFC8A75-9EF7-47EA-B089-C28379EBFC98}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{17FE9ED5-6CA2-4A18-AD85-6CBE4518A896}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2E337CFA-B264-4CF9-A188-93773D163600}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{08C16C03-C7DB-4179-A415-72E343FA1129}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86039DA5-B5DD-4C49-B4B4-06B11E4F8305}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E108284-CEF3-4FBF-8444-E54D302A3BE0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DD71D230-F5C0-4912-9122-1A6BCA8A4F65}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC0033A4-BED8-4D99-8DC0-F692E033B898}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96D2BFC5-310E-4FDC-AFCF-F5F0D2ECB753}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C2181311-75CB-4E52-B184-93D690B7298B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8EB8C47-9009-4E47-93A8-DEED25B58FF9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9E700B66-CD01-4BC3-A967-D6D51A4DAE52}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3D07664-4C3D-4217-8425-88DC1C9731C8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8AC4C9F8-E376-4EF0-B73D-B87FF5E9B46A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{101775AE-905C-4CB0-840F-1661ECA4C19F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D215F879-2214-42CE-8EB2-BA6A6F8ED403}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9CEB111B-28D6-466B-A080-AFF89E08244F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{10F5869E-34A1-4F39-81B2-68B747C39CEB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{82B6C9D0-5FB8-4A3A-BD87-C29C68C77FC5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3263177C-7A9B-480E-A71B-958A06B6EE2E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5719134F-7783-4E88-8FDA-D1AD904F808F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10159,7 +10159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1495A363-A6B4-4AC7-AD23-EF73D62ED90F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACDD2CA-1F44-410B-A2D2-FC3D90E728D5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11412,18 +11412,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8090A18D-2CAF-44D0-822A-03560A50A33C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B23CBDBE-EFFA-48CE-B811-D4F126161F91}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{15377104-C467-475D-8C72-E2B1875C39CA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{913E910D-D316-4CCA-B0A0-8747E77B30B7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3F99052C-FC9F-4240-8254-94E0D88EBFCB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1B7640F0-EF0F-4ADC-83CA-4D11EA710A64}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52F035FA-442D-489A-A3C4-474C431B7FCF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF8F9DCE-8475-4FC4-9105-790AB0F0101D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{05C30E83-1A5C-4203-8ACB-7F847CC589F1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{82C37089-6734-4A36-AFEA-3DFDF00E99E2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F44AE158-72EE-4048-8340-A289C2C2031B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4433E118-B945-4C92-B414-420B0213D312}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1516295-CE0B-4868-8365-5AF528844C51}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42051A9B-3DD2-45E7-A89C-AECC19C11EA5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F803309F-AEC6-437E-94FC-58E36F24C5FE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7FE1FBCC-766E-43D8-8F4B-FBD221BA7109}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6142E13C-F4D0-4989-AAB8-57DE79878BCE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{400286DB-372E-4C7B-8E9A-D11E7B69C243}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{79B3096B-CB1B-468C-80D2-7DF693DE5350}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4124FB16-057E-4D99-8E81-0BA0285389EC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{952939A4-820D-4E88-AEA6-1AC4FD3DE936}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4F20C4C2-2820-475D-8471-E9CD5CE66A69}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9DECD19-0EE1-4569-B258-140A0EF80BDB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DF14CAB7-0A4B-4728-984D-66964A1D54B3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11436,7 +11436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFD8542-F434-4F0B-A94C-DCEE926CF350}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618E4C0-C061-4B72-92CC-673B2F26C920}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12684,18 +12684,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C7A982A-C78E-43F5-B5EE-9736429C752B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ADFBA725-BE2F-4547-A182-6DE9FDAFC639}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{75378185-FA29-4EC6-815D-EFA47D6E12F6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{748613C8-8043-46E1-A2FC-5BAD2B8F0F85}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B9AD9A59-D7DD-4D3F-9981-C37C3A252938}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8617C949-5F99-4240-9CBE-70F51CC6AC36}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8FB7B22-47CF-4B66-9B46-81F22A68629C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5695ADE9-136F-4AD1-8342-5DCE274D4C5A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54E49632-2486-4297-A0A1-FDAA67A7BB32}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7CAE07FA-8830-4D5F-8DE2-1128FC3BCF60}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{999EBE85-6F96-47BF-A23E-D7B598423A4C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C89688EC-B75D-4EA0-8326-D3E10F846B3A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D686498A-8E5D-45B4-8633-7B2BAC8143F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E497C6DD-87F9-473F-BF1E-8DBB100CB7A7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8B7BE543-474D-417D-9B24-0429B302A28F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{07E62843-91C2-41CD-AB09-866F0640794A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{53EB7894-7D49-4046-B508-1D83886D6355}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0E9B167C-A7D3-4393-B20A-9D93E78A18A2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{436BF764-7345-4C00-B709-86574598B341}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7E12FA8-BEDA-44C4-8F8C-7144E55AF2D7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4047A2B7-F2D7-40D0-BC71-B851491E2C3E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CF5ED2FD-07A4-44DE-94D5-C4432F8228DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{041D7725-3E22-4052-82D3-4BD629D288CE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{997B7B57-A515-4DDD-ACD0-A10B5376318E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12708,7 +12708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01D30D0-3C91-4E91-9F30-0A4B5326ADAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6164AD-9EE1-4BD5-AAD7-8C8229A97379}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13940,18 +13940,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B62DF93-882D-43EB-8A7A-3EA264473FB3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{678D143F-AD96-4410-B16E-B67CD6463100}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6CAADB43-2843-4127-A168-AC48CF4C4607}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7C768DCC-0E32-4D0B-9BDF-A2FC2418A258}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5272D59F-DF49-4CBD-8C87-4846544E79D7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7AC57870-FC65-4A8F-9F33-E78948C162CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41DE12AF-44AB-4873-976B-73B906C506C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3686F576-0C50-442E-B3BF-1D425AA64CDA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8348EC9D-5898-4EFE-8BCF-9DE26BF295D3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A7C7CDB0-D2BF-4AC0-9204-63201F58D922}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5DDCD1B8-F38E-44DD-AF68-52A6B4759417}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CEAA934D-6ADD-4B81-812D-A69AC4994E45}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{972DC0B6-47A2-4DEC-8DD9-8463AD3E4885}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EBB0B161-0CE4-431E-9A3E-44607D5B2084}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{94E1D4DF-E089-4872-B593-7DB757457425}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CD923B2E-B464-4E87-9B97-950C3478EF04}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B321CD77-78FE-4031-8768-952CBB747341}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F66E8C7F-8E49-442B-A91E-DB5CC0CC869F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6EB8ECE1-C900-44F6-AD42-E2C3241340C9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9837F7F-78FB-413B-BDE9-25A89F0FD2A9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58719174-F40C-4F73-AD58-2B6E5C4BDEA0}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E3A68F46-D52D-4A55-9E9C-78EBC810866B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26D43242-B13C-4E1A-B820-E0FC85FD8088}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F1D2AB1-9636-4214-8C36-197F090AB734}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13964,7 +13964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C0FADF-AAEC-4A6C-BABA-A508FA726790}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EAE159-EC84-4DED-97D4-15A5C74A9AB5}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15188,18 +15188,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4A703D1F-027D-418C-99B2-0D3E8A8BBDBC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7F0AF51E-90D0-4D51-90B8-0BF6194D3B87}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{73CA1352-7842-4E3B-B68C-2374C6DE6CE7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{80A24A3B-4993-48CA-BC6D-1E51F0F05C44}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FCC63246-5A03-49E4-8ECF-E735150D7AB3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F957A86D-539D-4C87-8EB6-22ADB50D32D3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2F468894-0541-431E-8D42-ECFAD405DB5A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC82594B-0A78-41EE-8A5C-F870FC71950B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{95AFA31F-37FF-4873-B82A-E916EB7C525B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{96E09CCA-E6A4-4CED-9166-64EA523EED81}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE18DA76-76F6-4241-B4CC-4089B7C759D2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2BADE587-3A52-4EA5-A2BE-098401E9F783}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54DAEE88-D073-493A-95CF-86DEAAC395C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0FA770A-EF0F-467F-A1C7-931B79AECFA8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{108B3233-98DC-4FED-9979-95A384BE83D5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9F4E9DD2-1FB9-476F-9D30-6B7EE9F38351}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{879E19B8-98D5-4E84-862D-08D6D93D2716}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E5E0B819-5F45-426A-913E-7BB36DABF746}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8416810C-7FD0-482C-8709-C17C9F5EB641}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62CF9005-90D2-49E4-BFDA-44CFEAE5555D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{32402C9B-C68D-4EAA-9E6C-758933C538FB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6FEC331C-F4CA-4A55-9B1C-30C4CCCBDF32}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BAA9ABD7-1DEF-4D9C-8478-5F8BADEDDAC8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{91E1B843-D5ED-4B04-A254-9359B74B65D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15212,7 +15212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E461B0BE-A85A-4B1C-BFE7-C0DC62152121}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2E7D38-1C64-4031-B081-53E517F6221E}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16436,18 +16436,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF883A91-4919-4E41-A626-635A55ED2265}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9AFBE072-1D0C-4848-B983-EE6187A66954}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DC0AFAED-CDCA-4DAB-B314-79F203A02A7E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D6CD3DF8-BE97-4310-9DA3-5B405358EE7B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{985EF20B-0870-4007-BAE3-72D462860F01}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{40F47EE5-B9D6-4B92-8C09-15B87AF90BA9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{569B1C03-7F81-4AB7-B7F1-64A84F71C75B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03541AD5-8DD6-4E39-AEEA-39432FC7C176}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{36108A2E-B304-4637-987C-04C8CCF67424}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{69319A6A-E562-4AF3-8021-5C21DC6D2D31}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CAA4AF81-EE5F-47F5-A6BA-DA95CC83D109}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2CCA1A0-B6AB-418B-BE10-DC1A070E8B5B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{92187365-6C4F-4B70-B6BD-7B516AE6A228}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4F13731-B8DF-4C7A-B26D-5A9FF0E5A166}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1A2B696A-7416-4CE5-A6EE-4894B0FF52A4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{04C966C2-33F9-45B6-A95E-17E5DCC3FD2C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{549BB7B8-1AAE-4E4A-B253-4BE714F12271}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{49619E29-16A8-4A4D-99A3-B4EFFF130DFE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B75B00B1-EB84-492B-A83C-190421A2AE84}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1443176-F27F-42F5-99AB-84F7B279B032}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D7FB735-CF00-413C-A2E0-9001D034C2E2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{03B8B591-52D6-46C5-998D-881B9A8C6CC9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B83A667-B320-4274-8572-6AF67DE59B52}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{353C93A2-CB08-4591-8B55-459835F825E3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
